--- a/shipment_report.xlsx
+++ b/shipment_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ShipmentName</t>
   </si>
@@ -24,27 +24,6 @@
   </si>
   <si>
     <t>Successfully Compressed</t>
-  </si>
-  <si>
-    <t>S23456</t>
-  </si>
-  <si>
-    <t>23567</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>24235</t>
-  </si>
-  <si>
-    <t>S24897</t>
-  </si>
-  <si>
-    <t>25983</t>
-  </si>
-  <si>
-    <t>26034</t>
   </si>
 </sst>
 </file>
@@ -89,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -109,62 +88,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
